--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dane\Studia_materialy\PAMSI\Projekt1\PAMSI_Projekt1\PAMSI_Projekt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728680B-81CF-4912-B699-C67839FC3685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FB02E7-6CBB-444B-9605-B6D0040EBA19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2ABAD32-9216-420E-9D9B-AB8490136D76}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Merge sort</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Quick sort f</t>
+  </si>
+  <si>
+    <t>Introspective sort with insertion sort</t>
   </si>
 </sst>
 </file>
@@ -1112,15 +1115,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$23</c:f>
+              <c:f>Arkusz1!$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1153,7 +1156,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1176,32 +1179,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$23:$Q$23</c:f>
+              <c:f>Arkusz1!$M$34:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.32</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.93</c:v>
+                  <c:v>10.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.59</c:v>
+                  <c:v>21.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164.9</c:v>
+                  <c:v>125.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>321.77</c:v>
+                  <c:v>263.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1213,7 +1216,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$24</c:f>
+              <c:f>Arkusz1!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1246,7 +1249,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1269,32 +1272,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$24:$Q$24</c:f>
+              <c:f>Arkusz1!$M$35:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.34</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.24</c:v>
+                  <c:v>11.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.51</c:v>
+                  <c:v>23.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.16</c:v>
+                  <c:v>137.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296.04000000000002</c:v>
+                  <c:v>289.72000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1306,7 +1309,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$25</c:f>
+              <c:f>Arkusz1!$E$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,7 +1342,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1362,32 +1365,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$25:$Q$25</c:f>
+              <c:f>Arkusz1!$M$36:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.44</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.190000000000001</c:v>
+                  <c:v>12.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.68</c:v>
+                  <c:v>26.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192.17</c:v>
+                  <c:v>150.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>467.08</c:v>
+                  <c:v>315.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1399,7 +1402,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$26</c:f>
+              <c:f>Arkusz1!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1432,7 +1435,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1455,32 +1458,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$26:$Q$26</c:f>
+              <c:f>Arkusz1!$M$37:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.01</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.77</c:v>
+                  <c:v>15.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.64</c:v>
+                  <c:v>34.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>197.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.07</c:v>
+                  <c:v>411.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1492,7 +1495,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$27</c:f>
+              <c:f>Arkusz1!$E$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1525,7 +1528,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1548,32 +1551,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$27:$Q$27</c:f>
+              <c:f>Arkusz1!$M$38:$Q$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.08</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.89</c:v>
+                  <c:v>41.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.78</c:v>
+                  <c:v>92.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.15</c:v>
+                  <c:v>550.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>272.27</c:v>
+                  <c:v>1164.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1585,7 +1588,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$28</c:f>
+              <c:f>Arkusz1!$E$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1618,7 +1621,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1641,32 +1644,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$28:$Q$28</c:f>
+              <c:f>Arkusz1!$M$39:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.03</c:v>
+                  <c:v>15.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.73</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.45</c:v>
+                  <c:v>279.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.03</c:v>
+                  <c:v>1891.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208.03</c:v>
+                  <c:v>4150.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1678,7 +1681,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$29</c:f>
+              <c:f>Arkusz1!$E$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1717,7 +1720,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1740,32 +1743,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$29:$Q$29</c:f>
+              <c:f>Arkusz1!$M$40:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>35.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.17</c:v>
+                  <c:v>277.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.32</c:v>
+                  <c:v>645.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.16</c:v>
+                  <c:v>4386.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188.65</c:v>
+                  <c:v>10390.200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1777,7 +1780,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$E$30</c:f>
+              <c:f>Arkusz1!$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1816,7 +1819,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$M$22:$Q$22</c:f>
               <c:numCache>
@@ -1839,32 +1842,17 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$M$30:$Q$30</c:f>
+              <c:f>Arkusz1!$M$41:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65.19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138.59</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-1E89-4C74-92B6-CCED5C71D3DD}"/>
@@ -1879,12 +1867,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="479662312"/>
         <c:axId val="479653784"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="479662312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1919,6 +1905,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ilość elementów w tablicy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1958,11 +1999,8 @@
         </c:txPr>
         <c:crossAx val="479653784"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="479653784"/>
         <c:scaling>
@@ -1984,6 +2022,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2017,7 +2110,7 @@
         </c:txPr>
         <c:crossAx val="479662312"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2152,618 +2245,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$69:$G$168</c:f>
+              <c:f>Arkusz1!$P$69:$P$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>49.401200000000003</c:v>
+                  <c:v>49.043799999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.096299999999999</c:v>
+                  <c:v>29.843900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.735399999999998</c:v>
+                  <c:v>28.637499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.071300000000001</c:v>
+                  <c:v>28.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.78</c:v>
+                  <c:v>46.078899999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.447200000000002</c:v>
+                  <c:v>37.451000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.445799999999998</c:v>
+                  <c:v>34.630699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.400199999999998</c:v>
+                  <c:v>27.977999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.764099999999999</c:v>
+                  <c:v>39.226100000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.532800000000002</c:v>
+                  <c:v>45.113100000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.3384</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.6373</c:v>
+                  <c:v>44.762</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.285699999999999</c:v>
+                  <c:v>29.534500000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.235799999999998</c:v>
+                  <c:v>32.5122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.436799999999998</c:v>
+                  <c:v>27.877000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.453800000000001</c:v>
+                  <c:v>31.545499999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.531799999999997</c:v>
+                  <c:v>40.3142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.569400000000002</c:v>
+                  <c:v>49.6036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.244299999999999</c:v>
+                  <c:v>37.668300000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.582900000000002</c:v>
+                  <c:v>30.429000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.289000000000001</c:v>
+                  <c:v>36.798700000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47.534100000000002</c:v>
+                  <c:v>47.816199999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.547999999999998</c:v>
+                  <c:v>29.904700000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.025100000000002</c:v>
+                  <c:v>27.048400000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.379600000000003</c:v>
+                  <c:v>36.265999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.356399999999997</c:v>
+                  <c:v>39.771599999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39.914999999999999</c:v>
+                  <c:v>48.570300000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44.243900000000004</c:v>
+                  <c:v>35.200700000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.8489</c:v>
+                  <c:v>49.0777</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.803800000000003</c:v>
+                  <c:v>28.5275</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47.067500000000003</c:v>
+                  <c:v>49.057200000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.667099999999998</c:v>
+                  <c:v>29.476500000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.1051</c:v>
+                  <c:v>29.931000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.960799999999999</c:v>
+                  <c:v>27.115400000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48.319899999999997</c:v>
+                  <c:v>33.810499999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30.0914</c:v>
+                  <c:v>44.438400000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48.5867</c:v>
+                  <c:v>48.015600000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.483200000000004</c:v>
+                  <c:v>48.212500000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>28.6798</c:v>
+                  <c:v>28.894500000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.898899999999998</c:v>
+                  <c:v>33.431699999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45.995999999999995</c:v>
+                  <c:v>45.076799999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.177700000000002</c:v>
+                  <c:v>47.8977</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.853199999999998</c:v>
+                  <c:v>47.442</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.751400000000004</c:v>
+                  <c:v>35.497099999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46.269100000000002</c:v>
+                  <c:v>48.512300000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41.976100000000002</c:v>
+                  <c:v>48.572199999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>29.646800000000002</c:v>
+                  <c:v>47.485900000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.015799999999999</c:v>
+                  <c:v>31.208099999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45.427800000000005</c:v>
+                  <c:v>33.380299999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>48.7498</c:v>
+                  <c:v>37.479199999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29.2134</c:v>
+                  <c:v>47.528199999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49.181599999999996</c:v>
+                  <c:v>45.449800000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30.0749</c:v>
+                  <c:v>34.679600000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.773700000000005</c:v>
+                  <c:v>38.924199999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.3596</c:v>
+                  <c:v>48.311500000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43.871400000000001</c:v>
+                  <c:v>44.0428</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.994800000000005</c:v>
+                  <c:v>45.521599999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45.419399999999996</c:v>
+                  <c:v>29.486099999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>49.045699999999997</c:v>
+                  <c:v>27.330500000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>27.287199999999999</c:v>
+                  <c:v>29.960700000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38.551400000000001</c:v>
+                  <c:v>35.213299999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43.905200000000001</c:v>
+                  <c:v>47.087499999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>28.902000000000001</c:v>
+                  <c:v>42.650199999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42.636299999999999</c:v>
+                  <c:v>28.529300000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28.8657</c:v>
+                  <c:v>29.723899999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>48.509299999999996</c:v>
+                  <c:v>29.104900000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>29.3308</c:v>
+                  <c:v>27.314300000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>30.1508</c:v>
+                  <c:v>29.360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>30.445299999999996</c:v>
+                  <c:v>48.646799999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>44.826899999999995</c:v>
+                  <c:v>31.886799999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>30.2529</c:v>
+                  <c:v>49.111199999999997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42.743400000000001</c:v>
+                  <c:v>49.5304</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>29.156100000000002</c:v>
+                  <c:v>37.928600000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>32.589700000000001</c:v>
+                  <c:v>48.122199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.301300000000001</c:v>
+                  <c:v>31.859500000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>47.877199999999995</c:v>
+                  <c:v>49.673200000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43.560500000000005</c:v>
+                  <c:v>28.258499999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>47.230800000000002</c:v>
+                  <c:v>29.4499</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>37.164999999999999</c:v>
+                  <c:v>40.500900000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>30.777500000000003</c:v>
+                  <c:v>48.935400000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>27.941500000000001</c:v>
+                  <c:v>27.751300000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>47.9756</c:v>
+                  <c:v>42.384399999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>34.703600000000002</c:v>
+                  <c:v>40.646100000000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42.547600000000003</c:v>
+                  <c:v>35.670200000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44.334499999999998</c:v>
+                  <c:v>45.537700000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>47.5501</c:v>
+                  <c:v>31.8398</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>48.744599999999998</c:v>
+                  <c:v>47.78</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45.268799999999999</c:v>
+                  <c:v>27.833000000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>29.6236</c:v>
+                  <c:v>46.967100000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>49.363900000000001</c:v>
+                  <c:v>42.857599999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>45.554699999999997</c:v>
+                  <c:v>41.459699999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>34.944299999999998</c:v>
+                  <c:v>41.8444</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>45.529199999999996</c:v>
+                  <c:v>44.407299999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>48.711100000000002</c:v>
+                  <c:v>33.558</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>34.267399999999995</c:v>
+                  <c:v>48.178599999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>39.504400000000004</c:v>
+                  <c:v>49.246200000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>31.802500000000002</c:v>
+                  <c:v>41.362099999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48.418199999999999</c:v>
+                  <c:v>31.830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>41.645800000000001</c:v>
+                  <c:v>46.161900000000003</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>47.721799999999995</c:v>
+                  <c:v>45.082499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$I$69:$I$168</c:f>
+              <c:f>Arkusz1!$R$69:$R$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1840</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1326</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>321</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>268</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>856</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1399</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>759</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>908</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1720</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1549</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>639</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="81">
-                  <c:v>694</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>455</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>873</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>843</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>749</c:v>
-                </c:pt>
                 <c:pt idx="88">
-                  <c:v>314</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1868</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>517</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>333</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>345</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1326</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>241</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>402</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>115</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>750</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>216</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1114</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,426 +2898,426 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$69:$B$168</c:f>
+              <c:f>Arkusz1!$K$69:$K$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>25.968799999999998</c:v>
+                  <c:v>25.215900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.728400000000001</c:v>
+                  <c:v>23.157700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.4803</c:v>
+                  <c:v>25.9436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.381900000000002</c:v>
+                  <c:v>25.983499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.4389</c:v>
+                  <c:v>24.285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.158200000000001</c:v>
+                  <c:v>24.501800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.668100000000003</c:v>
+                  <c:v>27.003100000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.1523</c:v>
+                  <c:v>24.991399999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.768999999999998</c:v>
+                  <c:v>26.011800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.8246</c:v>
+                  <c:v>25.321300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.625599999999999</c:v>
+                  <c:v>26.580399999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.7319</c:v>
+                  <c:v>25.491000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.178099999999997</c:v>
+                  <c:v>24.797799999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.8919</c:v>
+                  <c:v>25.327400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.858799999999999</c:v>
+                  <c:v>25.778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.2255</c:v>
+                  <c:v>24.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.600199999999997</c:v>
+                  <c:v>24.462800000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.751400000000004</c:v>
+                  <c:v>24.977900000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.903400000000001</c:v>
+                  <c:v>25.220799999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.061999999999998</c:v>
+                  <c:v>23.9543</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.1083</c:v>
+                  <c:v>25.5623</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.351200000000002</c:v>
+                  <c:v>24.753</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.713700000000003</c:v>
+                  <c:v>23.854099999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.751200000000001</c:v>
+                  <c:v>24.243500000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.319399999999998</c:v>
+                  <c:v>26.765499999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.304899999999996</c:v>
+                  <c:v>24.510399999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.364899999999999</c:v>
+                  <c:v>24.2057</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.452400000000001</c:v>
+                  <c:v>25.863500000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.349499999999999</c:v>
+                  <c:v>24.562999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.831199999999999</c:v>
+                  <c:v>25.281199999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.255399999999998</c:v>
+                  <c:v>23.694100000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.881399999999999</c:v>
+                  <c:v>24.736900000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.7319</c:v>
+                  <c:v>25.684800000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25.064599999999999</c:v>
+                  <c:v>26.015300000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.52</c:v>
+                  <c:v>23.974299999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24.977900000000002</c:v>
+                  <c:v>23.514599999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.496700000000001</c:v>
+                  <c:v>24.382200000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.777699999999999</c:v>
+                  <c:v>25.462</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23.558899999999998</c:v>
+                  <c:v>26.273499999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.6403</c:v>
+                  <c:v>24.524099999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.417400000000001</c:v>
+                  <c:v>23.691000000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22.7119</c:v>
+                  <c:v>24.963999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.238900000000001</c:v>
+                  <c:v>26.062999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.233800000000002</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21.907399999999999</c:v>
+                  <c:v>24.768999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25.013300000000001</c:v>
+                  <c:v>25.528699999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24.305099999999999</c:v>
+                  <c:v>26.662799999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26.8063</c:v>
+                  <c:v>24.918299999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>23.979700000000001</c:v>
+                  <c:v>26.088000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>23.445</c:v>
+                  <c:v>24.867699999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26.087700000000002</c:v>
+                  <c:v>25.722799999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>23.736599999999999</c:v>
+                  <c:v>24.897400000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.109500000000001</c:v>
+                  <c:v>23.766100000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.232699999999998</c:v>
+                  <c:v>27.123899999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>26.5992</c:v>
+                  <c:v>24.8292</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25.016899999999996</c:v>
+                  <c:v>23.924899999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>24.224999999999998</c:v>
+                  <c:v>23.595099999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>24.796099999999999</c:v>
+                  <c:v>25.550899999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25.425399999999996</c:v>
+                  <c:v>23.819000000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.348100000000002</c:v>
+                  <c:v>24.689900000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24.244299999999999</c:v>
+                  <c:v>27.988800000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>23.852699999999999</c:v>
+                  <c:v>23.6661</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>23.7683</c:v>
+                  <c:v>24.634499999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>23.097000000000001</c:v>
+                  <c:v>23.6205</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25.822299999999998</c:v>
+                  <c:v>24.392299999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>24.766300000000001</c:v>
+                  <c:v>27.303799999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26.913799999999998</c:v>
+                  <c:v>24.3035</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.9148</c:v>
+                  <c:v>25.375599999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25.180299999999999</c:v>
+                  <c:v>24.161899999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>24.682299999999998</c:v>
+                  <c:v>25.1371</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.7178</c:v>
+                  <c:v>23.2453</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26.055800000000001</c:v>
+                  <c:v>25.325500000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>29.116099999999999</c:v>
+                  <c:v>26.1569</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25.815500000000004</c:v>
+                  <c:v>26.019500000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>24.525700000000001</c:v>
+                  <c:v>26.271899999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25.939499999999999</c:v>
+                  <c:v>23.773299999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>25.415399999999998</c:v>
+                  <c:v>23.716699999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>26.259</c:v>
+                  <c:v>23.654399999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24.8477</c:v>
+                  <c:v>23.846500000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>26.5581</c:v>
+                  <c:v>25.830799999999996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>24.079499999999999</c:v>
+                  <c:v>25.2318</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26.195600000000002</c:v>
+                  <c:v>25.037799999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>24.839500000000001</c:v>
+                  <c:v>24.823899999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>23.504799999999999</c:v>
+                  <c:v>25.565300000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>24.009</c:v>
+                  <c:v>25.656299999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>24.3627</c:v>
+                  <c:v>24.635999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>25.315700000000003</c:v>
+                  <c:v>27.432299999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>24.208400000000001</c:v>
+                  <c:v>24.3889</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24.450099999999999</c:v>
+                  <c:v>23.658899999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24.104400000000002</c:v>
+                  <c:v>27.938299999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>24.607200000000002</c:v>
+                  <c:v>24.876899999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>25.162600000000001</c:v>
+                  <c:v>25.141000000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>24.753</c:v>
+                  <c:v>22.974</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>23.659500000000001</c:v>
+                  <c:v>25.341200000000004</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>25.494199999999999</c:v>
+                  <c:v>24.6709</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26.4832</c:v>
+                  <c:v>26.313399999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>23.3491</c:v>
+                  <c:v>24.441600000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>23.900500000000001</c:v>
+                  <c:v>25.002999999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>25.323499999999999</c:v>
+                  <c:v>25.385899999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>23.9419</c:v>
+                  <c:v>25.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$69:$D$168</c:f>
+              <c:f>Arkusz1!$M$69:$M$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="24">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45</c:v>
@@ -3233,190 +3326,190 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>47</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="63">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="80">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>45</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>46</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>49</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>51</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,21 +3574,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>Średnia odległość pivota od środka dzielonego podzbioru,</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t> mierzona</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> w % podzbioru</a:t>
+                  <a:t>d</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3573,10 +3653,9 @@
       <c:valAx>
         <c:axId val="479652472"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="3000"/>
-          <c:min val="30"/>
+          <c:max val="2000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3787,6 +3866,1110 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>298.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>257.35000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99,70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All_rev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A101-414F-A328-E5CD8278B3C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="629313352"/>
+        <c:axId val="629312040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="629313352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ilość elementów w tablicy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629312040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629312040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629313352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3868,6 +5051,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5429,20 +6652,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>42864</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5470,15 +7209,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5505,16 +7244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5534,6 +7273,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFD5856-DD57-42AE-8C74-D1E1DE3D0472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5841,8 +7616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E519E57-DC9E-4E75-9C03-C9F50CC84E3D}">
   <dimension ref="B10:AE168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22:AE30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6864,7 +8639,7 @@
         <v>117.52</v>
       </c>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>2</v>
       </c>
@@ -6901,8 +8676,26 @@
       <c r="Q33">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Z33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33">
+        <v>10000</v>
+      </c>
+      <c r="AB33">
+        <v>50000</v>
+      </c>
+      <c r="AC33">
+        <v>100000</v>
+      </c>
+      <c r="AD33">
+        <v>500000</v>
+      </c>
+      <c r="AE33">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
         <v>0</v>
       </c>
@@ -6930,22 +8723,40 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>10.050000000000001</v>
+        <v>10.16</v>
       </c>
       <c r="O34">
-        <v>21.31</v>
+        <v>21.52</v>
       </c>
       <c r="P34">
-        <v>124.47</v>
+        <v>125.97</v>
       </c>
       <c r="Q34">
-        <v>259.98</v>
-      </c>
-    </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+        <v>263.08</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AB34">
+        <v>9.74</v>
+      </c>
+      <c r="AC34">
+        <v>19.97</v>
+      </c>
+      <c r="AD34">
+        <v>138.46</v>
+      </c>
+      <c r="AE34">
+        <v>259.57</v>
+      </c>
+    </row>
+    <row r="35" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E35" s="1">
         <v>0.25</v>
       </c>
@@ -6973,16 +8784,40 @@
         <v>0.25</v>
       </c>
       <c r="M35">
-        <v>76.63</v>
+        <v>1.19</v>
       </c>
       <c r="N35">
-        <v>1868.58</v>
+        <v>11.05</v>
       </c>
       <c r="O35">
-        <v>7460.99</v>
-      </c>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+        <v>23.76</v>
+      </c>
+      <c r="P35">
+        <v>137.75</v>
+      </c>
+      <c r="Q35">
+        <v>289.72000000000003</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AA35">
+        <v>1.06</v>
+      </c>
+      <c r="AB35">
+        <v>10.01</v>
+      </c>
+      <c r="AC35">
+        <v>21.49</v>
+      </c>
+      <c r="AD35">
+        <v>126.73</v>
+      </c>
+      <c r="AE35">
+        <v>263.04000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E36" s="1">
         <v>0.5</v>
       </c>
@@ -7006,8 +8841,44 @@
         <f t="shared" si="1"/>
         <v>183.52500000000001</v>
       </c>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <v>1.88</v>
+      </c>
+      <c r="N36">
+        <v>12.01</v>
+      </c>
+      <c r="O36">
+        <v>26.26</v>
+      </c>
+      <c r="P36">
+        <v>150.88</v>
+      </c>
+      <c r="Q36">
+        <v>315.75</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AA36">
+        <v>1.88</v>
+      </c>
+      <c r="AB36">
+        <v>11.9</v>
+      </c>
+      <c r="AC36">
+        <v>28.54</v>
+      </c>
+      <c r="AD36">
+        <v>189.1</v>
+      </c>
+      <c r="AE36">
+        <v>466.72</v>
+      </c>
+    </row>
+    <row r="37" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E37" s="1">
         <v>0.75</v>
       </c>
@@ -7031,8 +8902,44 @@
         <f t="shared" si="1"/>
         <v>148.5</v>
       </c>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M37">
+        <v>2.09</v>
+      </c>
+      <c r="N37">
+        <v>15.87</v>
+      </c>
+      <c r="O37">
+        <v>34.75</v>
+      </c>
+      <c r="P37">
+        <v>197.25</v>
+      </c>
+      <c r="Q37">
+        <v>411.27</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AA37">
+        <v>1.21</v>
+      </c>
+      <c r="AB37">
+        <v>10.98</v>
+      </c>
+      <c r="AC37">
+        <v>22.86</v>
+      </c>
+      <c r="AD37">
+        <v>138.87</v>
+      </c>
+      <c r="AE37">
+        <v>328.71</v>
+      </c>
+    </row>
+    <row r="38" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E38" s="1">
         <v>0.95</v>
       </c>
@@ -7056,8 +8963,44 @@
         <f t="shared" si="1"/>
         <v>120.693</v>
       </c>
-    </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="M38">
+        <v>6.03</v>
+      </c>
+      <c r="N38">
+        <v>41.15</v>
+      </c>
+      <c r="O38">
+        <v>92.39</v>
+      </c>
+      <c r="P38">
+        <v>550.46</v>
+      </c>
+      <c r="Q38">
+        <v>1164.48</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AA38">
+        <v>1.03</v>
+      </c>
+      <c r="AB38">
+        <v>7</v>
+      </c>
+      <c r="AC38">
+        <v>16.48</v>
+      </c>
+      <c r="AD38">
+        <v>111.91</v>
+      </c>
+      <c r="AE38">
+        <v>250.86</v>
+      </c>
+    </row>
+    <row r="39" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E39" s="1">
         <v>0.99</v>
       </c>
@@ -7081,8 +9024,44 @@
         <f t="shared" si="1"/>
         <v>116.23699999999999</v>
       </c>
-    </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M39">
+        <v>15.37</v>
+      </c>
+      <c r="N39">
+        <v>124</v>
+      </c>
+      <c r="O39">
+        <v>279.14999999999998</v>
+      </c>
+      <c r="P39">
+        <v>1891.06</v>
+      </c>
+      <c r="Q39">
+        <v>4150.2</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="AA39">
+        <v>0.12</v>
+      </c>
+      <c r="AB39">
+        <v>6.83</v>
+      </c>
+      <c r="AC39">
+        <v>14.04</v>
+      </c>
+      <c r="AD39">
+        <v>85.93</v>
+      </c>
+      <c r="AE39">
+        <v>217.11</v>
+      </c>
+    </row>
+    <row r="40" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E40" s="3">
         <v>0.997</v>
       </c>
@@ -7106,8 +9085,44 @@
         <f t="shared" si="1"/>
         <v>115.578</v>
       </c>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L40" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="M40">
+        <v>35.01</v>
+      </c>
+      <c r="N40">
+        <v>277.83</v>
+      </c>
+      <c r="O40">
+        <v>645.36</v>
+      </c>
+      <c r="P40">
+        <v>4386.78</v>
+      </c>
+      <c r="Q40">
+        <v>10390.200000000001</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="AA40">
+        <v>0.45</v>
+      </c>
+      <c r="AB40">
+        <v>5.8</v>
+      </c>
+      <c r="AC40">
+        <v>12.54</v>
+      </c>
+      <c r="AD40">
+        <v>85.01</v>
+      </c>
+      <c r="AE40">
+        <v>201.51</v>
+      </c>
+    </row>
+    <row r="41" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>1</v>
       </c>
@@ -7131,8 +9146,26 @@
         <f t="shared" si="1"/>
         <v>128.58600000000001</v>
       </c>
-    </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>0.04</v>
+      </c>
+      <c r="AB41">
+        <v>4.47</v>
+      </c>
+      <c r="AC41">
+        <v>9.68</v>
+      </c>
+      <c r="AD41">
+        <v>61.25</v>
+      </c>
+      <c r="AE41">
+        <v>116.72</v>
+      </c>
+    </row>
+    <row r="44" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>2</v>
       </c>
@@ -7152,7 +9185,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E45" s="1">
         <v>0</v>
       </c>
@@ -7172,7 +9205,7 @@
         <v>262630</v>
       </c>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E46" s="1">
         <v>0.25</v>
       </c>
@@ -7192,7 +9225,7 @@
         <v>224093</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E47" s="1">
         <v>0.5</v>
       </c>
@@ -7212,7 +9245,7 @@
         <v>183525</v>
       </c>
     </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E48" s="1">
         <v>0.75</v>
       </c>
@@ -7312,7 +9345,7 @@
         <v>128586</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69">
         <f>C69*100</f>
         <v>25.968799999999998</v>
@@ -7333,8 +9366,28 @@
       <c r="I69">
         <v>1840</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f>L69*100</f>
+        <v>25.215900000000001</v>
+      </c>
+      <c r="L69">
+        <v>0.25215900000000002</v>
+      </c>
+      <c r="M69">
+        <v>44</v>
+      </c>
+      <c r="P69">
+        <f>Q69*100</f>
+        <v>49.043799999999997</v>
+      </c>
+      <c r="Q69">
+        <v>0.49043799999999999</v>
+      </c>
+      <c r="R69">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" ref="B70:B133" si="2">C70*100</f>
         <v>22.728400000000001</v>
@@ -7355,8 +9408,28 @@
       <c r="I70">
         <v>1326</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" ref="K70:K133" si="4">L70*100</f>
+        <v>23.157700000000002</v>
+      </c>
+      <c r="L70">
+        <v>0.23157700000000001</v>
+      </c>
+      <c r="M70">
+        <v>44</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ref="P70:P133" si="5">Q70*100</f>
+        <v>29.843900000000001</v>
+      </c>
+      <c r="Q70">
+        <v>0.29843900000000001</v>
+      </c>
+      <c r="R70">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="2"/>
         <v>23.4803</v>
@@ -7377,8 +9450,28 @@
       <c r="I71">
         <v>321</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>25.9436</v>
+      </c>
+      <c r="L71">
+        <v>0.259436</v>
+      </c>
+      <c r="M71">
+        <v>44</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="5"/>
+        <v>28.637499999999999</v>
+      </c>
+      <c r="Q71">
+        <v>0.28637499999999999</v>
+      </c>
+      <c r="R71">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="2"/>
         <v>23.381900000000002</v>
@@ -7399,8 +9492,28 @@
       <c r="I72">
         <v>268</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>25.983499999999999</v>
+      </c>
+      <c r="L72">
+        <v>0.25983499999999998</v>
+      </c>
+      <c r="M72">
+        <v>48</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="5"/>
+        <v>28.03</v>
+      </c>
+      <c r="Q72">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="R72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="2"/>
         <v>22.4389</v>
@@ -7421,8 +9534,28 @@
       <c r="I73">
         <v>395</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>24.285</v>
+      </c>
+      <c r="L73">
+        <v>0.24285000000000001</v>
+      </c>
+      <c r="M73">
+        <v>44</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="5"/>
+        <v>46.078899999999997</v>
+      </c>
+      <c r="Q73">
+        <v>0.460789</v>
+      </c>
+      <c r="R73">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="2"/>
         <v>24.158200000000001</v>
@@ -7443,8 +9576,28 @@
       <c r="I74">
         <v>277</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>24.501800000000003</v>
+      </c>
+      <c r="L74">
+        <v>0.24501800000000001</v>
+      </c>
+      <c r="M74">
+        <v>46</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="5"/>
+        <v>37.451000000000001</v>
+      </c>
+      <c r="Q74">
+        <v>0.37451000000000001</v>
+      </c>
+      <c r="R74">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="2"/>
         <v>24.668100000000003</v>
@@ -7465,8 +9618,28 @@
       <c r="I75">
         <v>409</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>27.003100000000003</v>
+      </c>
+      <c r="L75">
+        <v>0.27003100000000002</v>
+      </c>
+      <c r="M75">
+        <v>51</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="5"/>
+        <v>34.630699999999997</v>
+      </c>
+      <c r="Q75">
+        <v>0.34630699999999998</v>
+      </c>
+      <c r="R75">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="2"/>
         <v>27.1523</v>
@@ -7487,8 +9660,28 @@
       <c r="I76">
         <v>112</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>24.991399999999999</v>
+      </c>
+      <c r="L76">
+        <v>0.249914</v>
+      </c>
+      <c r="M76">
+        <v>47</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="5"/>
+        <v>27.977999999999998</v>
+      </c>
+      <c r="Q76">
+        <v>0.27977999999999997</v>
+      </c>
+      <c r="R76">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="2"/>
         <v>25.768999999999998</v>
@@ -7509,8 +9702,28 @@
       <c r="I77">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>26.011800000000001</v>
+      </c>
+      <c r="L77">
+        <v>0.26011800000000002</v>
+      </c>
+      <c r="M77">
+        <v>49</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="5"/>
+        <v>39.226100000000002</v>
+      </c>
+      <c r="Q77">
+        <v>0.39226100000000003</v>
+      </c>
+      <c r="R77">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="2"/>
         <v>24.8246</v>
@@ -7531,8 +9744,28 @@
       <c r="I78">
         <v>237</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>25.321300000000001</v>
+      </c>
+      <c r="L78">
+        <v>0.25321300000000002</v>
+      </c>
+      <c r="M78">
+        <v>46</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="5"/>
+        <v>45.113100000000003</v>
+      </c>
+      <c r="Q78">
+        <v>0.451131</v>
+      </c>
+      <c r="R78">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="2"/>
         <v>23.625599999999999</v>
@@ -7553,8 +9786,28 @@
       <c r="I79">
         <v>117</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>26.580399999999997</v>
+      </c>
+      <c r="L79">
+        <v>0.26580399999999998</v>
+      </c>
+      <c r="M79">
+        <v>49</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="5"/>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Q79">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="R79">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="2"/>
         <v>24.7319</v>
@@ -7575,8 +9828,28 @@
       <c r="I80">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>25.491000000000003</v>
+      </c>
+      <c r="L80">
+        <v>0.25491000000000003</v>
+      </c>
+      <c r="M80">
+        <v>44</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="5"/>
+        <v>44.762</v>
+      </c>
+      <c r="Q80">
+        <v>0.44762000000000002</v>
+      </c>
+      <c r="R80">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="2"/>
         <v>25.178099999999997</v>
@@ -7597,8 +9870,28 @@
       <c r="I81">
         <v>587</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>24.797799999999999</v>
+      </c>
+      <c r="L81">
+        <v>0.247978</v>
+      </c>
+      <c r="M81">
+        <v>45</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="5"/>
+        <v>29.534500000000001</v>
+      </c>
+      <c r="Q81">
+        <v>0.29534500000000002</v>
+      </c>
+      <c r="R81">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" si="2"/>
         <v>23.8919</v>
@@ -7619,8 +9912,28 @@
       <c r="I82">
         <v>572</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>25.327400000000001</v>
+      </c>
+      <c r="L82">
+        <v>0.253274</v>
+      </c>
+      <c r="M82">
+        <v>46</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="5"/>
+        <v>32.5122</v>
+      </c>
+      <c r="Q82">
+        <v>0.32512200000000002</v>
+      </c>
+      <c r="R82">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="2"/>
         <v>23.858799999999999</v>
@@ -7641,8 +9954,28 @@
       <c r="I83">
         <v>282</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>25.778700000000001</v>
+      </c>
+      <c r="L83">
+        <v>0.25778699999999999</v>
+      </c>
+      <c r="M83">
+        <v>47</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="5"/>
+        <v>27.877000000000002</v>
+      </c>
+      <c r="Q83">
+        <v>0.27877000000000002</v>
+      </c>
+      <c r="R83">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="2"/>
         <v>24.2255</v>
@@ -7663,8 +9996,28 @@
       <c r="I84">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>24.676600000000001</v>
+      </c>
+      <c r="L84">
+        <v>0.24676600000000001</v>
+      </c>
+      <c r="M84">
+        <v>45</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="5"/>
+        <v>31.545499999999997</v>
+      </c>
+      <c r="Q84">
+        <v>0.31545499999999999</v>
+      </c>
+      <c r="R84">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" si="2"/>
         <v>23.600199999999997</v>
@@ -7685,8 +10038,28 @@
       <c r="I85">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>24.462800000000001</v>
+      </c>
+      <c r="L85">
+        <v>0.24462800000000001</v>
+      </c>
+      <c r="M85">
+        <v>43</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="5"/>
+        <v>40.3142</v>
+      </c>
+      <c r="Q85">
+        <v>0.403142</v>
+      </c>
+      <c r="R85">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="2"/>
         <v>25.751400000000004</v>
@@ -7707,8 +10080,28 @@
       <c r="I86">
         <v>371</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>24.977900000000002</v>
+      </c>
+      <c r="L86">
+        <v>0.249779</v>
+      </c>
+      <c r="M86">
+        <v>46</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="5"/>
+        <v>49.6036</v>
+      </c>
+      <c r="Q86">
+        <v>0.49603599999999998</v>
+      </c>
+      <c r="R86">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="2"/>
         <v>24.903400000000001</v>
@@ -7729,8 +10122,28 @@
       <c r="I87">
         <v>75</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>25.220799999999997</v>
+      </c>
+      <c r="L87">
+        <v>0.25220799999999999</v>
+      </c>
+      <c r="M87">
+        <v>49</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="5"/>
+        <v>37.668300000000002</v>
+      </c>
+      <c r="Q87">
+        <v>0.37668299999999999</v>
+      </c>
+      <c r="R87">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88">
         <f t="shared" si="2"/>
         <v>23.061999999999998</v>
@@ -7751,8 +10164,28 @@
       <c r="I88">
         <v>665</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>23.9543</v>
+      </c>
+      <c r="L88">
+        <v>0.23954300000000001</v>
+      </c>
+      <c r="M88">
+        <v>44</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="5"/>
+        <v>30.429000000000002</v>
+      </c>
+      <c r="Q88">
+        <v>0.30429</v>
+      </c>
+      <c r="R88">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89">
         <f t="shared" si="2"/>
         <v>25.1083</v>
@@ -7773,8 +10206,28 @@
       <c r="I89">
         <v>226</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>25.5623</v>
+      </c>
+      <c r="L89">
+        <v>0.25562299999999999</v>
+      </c>
+      <c r="M89">
+        <v>49</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="5"/>
+        <v>36.798700000000004</v>
+      </c>
+      <c r="Q89">
+        <v>0.36798700000000001</v>
+      </c>
+      <c r="R89">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" si="2"/>
         <v>26.351200000000002</v>
@@ -7795,8 +10248,28 @@
       <c r="I90">
         <v>663</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>24.753</v>
+      </c>
+      <c r="L90">
+        <v>0.24753</v>
+      </c>
+      <c r="M90">
+        <v>44</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="5"/>
+        <v>47.816199999999995</v>
+      </c>
+      <c r="Q90">
+        <v>0.47816199999999998</v>
+      </c>
+      <c r="R90">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="2"/>
         <v>27.713700000000003</v>
@@ -7817,8 +10290,28 @@
       <c r="I91">
         <v>124</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>23.854099999999999</v>
+      </c>
+      <c r="L91">
+        <v>0.238541</v>
+      </c>
+      <c r="M91">
+        <v>49</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="5"/>
+        <v>29.904700000000002</v>
+      </c>
+      <c r="Q91">
+        <v>0.29904700000000001</v>
+      </c>
+      <c r="R91">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="2"/>
         <v>24.751200000000001</v>
@@ -7839,8 +10332,28 @@
       <c r="I92">
         <v>362</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>24.243500000000001</v>
+      </c>
+      <c r="L92">
+        <v>0.24243500000000001</v>
+      </c>
+      <c r="M92">
+        <v>48</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="5"/>
+        <v>27.048400000000001</v>
+      </c>
+      <c r="Q92">
+        <v>0.270484</v>
+      </c>
+      <c r="R92">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="2"/>
         <v>26.319399999999998</v>
@@ -7861,8 +10374,28 @@
       <c r="I93">
         <v>667</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>26.765499999999996</v>
+      </c>
+      <c r="L93">
+        <v>0.26765499999999998</v>
+      </c>
+      <c r="M93">
+        <v>47</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="5"/>
+        <v>36.265999999999998</v>
+      </c>
+      <c r="Q93">
+        <v>0.36265999999999998</v>
+      </c>
+      <c r="R93">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" si="2"/>
         <v>26.304899999999996</v>
@@ -7883,8 +10416,28 @@
       <c r="I94">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>24.510399999999997</v>
+      </c>
+      <c r="L94">
+        <v>0.24510399999999999</v>
+      </c>
+      <c r="M94">
+        <v>47</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="5"/>
+        <v>39.771599999999999</v>
+      </c>
+      <c r="Q94">
+        <v>0.39771600000000001</v>
+      </c>
+      <c r="R94">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="2"/>
         <v>28.364899999999999</v>
@@ -7905,8 +10458,28 @@
       <c r="I95">
         <v>173</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>24.2057</v>
+      </c>
+      <c r="L95">
+        <v>0.24205699999999999</v>
+      </c>
+      <c r="M95">
+        <v>44</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="5"/>
+        <v>48.570300000000003</v>
+      </c>
+      <c r="Q95">
+        <v>0.485703</v>
+      </c>
+      <c r="R95">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="2"/>
         <v>23.452400000000001</v>
@@ -7927,8 +10500,28 @@
       <c r="I96">
         <v>856</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>25.863500000000002</v>
+      </c>
+      <c r="L96">
+        <v>0.258635</v>
+      </c>
+      <c r="M96">
+        <v>48</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="5"/>
+        <v>35.200700000000005</v>
+      </c>
+      <c r="Q96">
+        <v>0.35200700000000001</v>
+      </c>
+      <c r="R96">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="2"/>
         <v>22.349499999999999</v>
@@ -7949,8 +10542,28 @@
       <c r="I97">
         <v>132</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>24.562999999999999</v>
+      </c>
+      <c r="L97">
+        <v>0.24562999999999999</v>
+      </c>
+      <c r="M97">
+        <v>44</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="5"/>
+        <v>49.0777</v>
+      </c>
+      <c r="Q97">
+        <v>0.49077700000000002</v>
+      </c>
+      <c r="R97">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="2"/>
         <v>24.831199999999999</v>
@@ -7971,8 +10584,28 @@
       <c r="I98">
         <v>544</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>25.281199999999998</v>
+      </c>
+      <c r="L98">
+        <v>0.25281199999999998</v>
+      </c>
+      <c r="M98">
+        <v>45</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="5"/>
+        <v>28.5275</v>
+      </c>
+      <c r="Q98">
+        <v>0.285275</v>
+      </c>
+      <c r="R98">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99">
         <f t="shared" si="2"/>
         <v>24.255399999999998</v>
@@ -7993,8 +10626,28 @@
       <c r="I99">
         <v>595</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>23.694100000000002</v>
+      </c>
+      <c r="L99">
+        <v>0.23694100000000001</v>
+      </c>
+      <c r="M99">
+        <v>48</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="5"/>
+        <v>49.057200000000002</v>
+      </c>
+      <c r="Q99">
+        <v>0.49057200000000001</v>
+      </c>
+      <c r="R99">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="2"/>
         <v>24.881399999999999</v>
@@ -8015,8 +10668,28 @@
       <c r="I100">
         <v>182</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>24.736900000000002</v>
+      </c>
+      <c r="L100">
+        <v>0.24736900000000001</v>
+      </c>
+      <c r="M100">
+        <v>45</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="5"/>
+        <v>29.476500000000001</v>
+      </c>
+      <c r="Q100">
+        <v>0.294765</v>
+      </c>
+      <c r="R100">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" si="2"/>
         <v>22.7319</v>
@@ -8037,8 +10710,28 @@
       <c r="I101">
         <v>250</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>25.684800000000003</v>
+      </c>
+      <c r="L101">
+        <v>0.25684800000000002</v>
+      </c>
+      <c r="M101">
+        <v>44</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="5"/>
+        <v>29.931000000000001</v>
+      </c>
+      <c r="Q101">
+        <v>0.29931000000000002</v>
+      </c>
+      <c r="R101">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="2"/>
         <v>25.064599999999999</v>
@@ -8059,8 +10752,28 @@
       <c r="I102">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>26.015300000000003</v>
+      </c>
+      <c r="L102">
+        <v>0.26015300000000002</v>
+      </c>
+      <c r="M102">
+        <v>47</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="5"/>
+        <v>27.115400000000001</v>
+      </c>
+      <c r="Q102">
+        <v>0.27115400000000001</v>
+      </c>
+      <c r="R102">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="2"/>
         <v>26.52</v>
@@ -8081,8 +10794,28 @@
       <c r="I103">
         <v>1399</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>23.974299999999999</v>
+      </c>
+      <c r="L103">
+        <v>0.23974300000000001</v>
+      </c>
+      <c r="M103">
+        <v>46</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="5"/>
+        <v>33.810499999999998</v>
+      </c>
+      <c r="Q103">
+        <v>0.33810499999999999</v>
+      </c>
+      <c r="R103">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104">
         <f t="shared" si="2"/>
         <v>24.977900000000002</v>
@@ -8103,8 +10836,28 @@
       <c r="I104">
         <v>133</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="4"/>
+        <v>23.514599999999998</v>
+      </c>
+      <c r="L104">
+        <v>0.23514599999999999</v>
+      </c>
+      <c r="M104">
+        <v>45</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="5"/>
+        <v>44.438400000000001</v>
+      </c>
+      <c r="Q104">
+        <v>0.444384</v>
+      </c>
+      <c r="R104">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" si="2"/>
         <v>24.496700000000001</v>
@@ -8125,8 +10878,28 @@
       <c r="I105">
         <v>836</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>24.382200000000001</v>
+      </c>
+      <c r="L105">
+        <v>0.24382200000000001</v>
+      </c>
+      <c r="M105">
+        <v>45</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="5"/>
+        <v>48.015600000000006</v>
+      </c>
+      <c r="Q105">
+        <v>0.48015600000000003</v>
+      </c>
+      <c r="R105">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" si="2"/>
         <v>24.777699999999999</v>
@@ -8147,8 +10920,28 @@
       <c r="I106">
         <v>119</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>25.462</v>
+      </c>
+      <c r="L106">
+        <v>0.25462000000000001</v>
+      </c>
+      <c r="M106">
+        <v>46</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="5"/>
+        <v>48.212500000000006</v>
+      </c>
+      <c r="Q106">
+        <v>0.48212500000000003</v>
+      </c>
+      <c r="R106">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107">
         <f t="shared" si="2"/>
         <v>23.558899999999998</v>
@@ -8169,8 +10962,28 @@
       <c r="I107">
         <v>122</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>26.273499999999999</v>
+      </c>
+      <c r="L107">
+        <v>0.262735</v>
+      </c>
+      <c r="M107">
+        <v>48</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="5"/>
+        <v>28.894500000000001</v>
+      </c>
+      <c r="Q107">
+        <v>0.28894500000000001</v>
+      </c>
+      <c r="R107">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" si="2"/>
         <v>24.6403</v>
@@ -8191,8 +11004,28 @@
       <c r="I108">
         <v>759</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f t="shared" si="4"/>
+        <v>24.524099999999997</v>
+      </c>
+      <c r="L108">
+        <v>0.24524099999999999</v>
+      </c>
+      <c r="M108">
+        <v>44</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="5"/>
+        <v>33.431699999999999</v>
+      </c>
+      <c r="Q108">
+        <v>0.33431699999999998</v>
+      </c>
+      <c r="R108">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109">
         <f t="shared" si="2"/>
         <v>23.417400000000001</v>
@@ -8213,8 +11046,28 @@
       <c r="I109">
         <v>908</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <f t="shared" si="4"/>
+        <v>23.691000000000003</v>
+      </c>
+      <c r="L109">
+        <v>0.23691000000000001</v>
+      </c>
+      <c r="M109">
+        <v>43</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="5"/>
+        <v>45.076799999999999</v>
+      </c>
+      <c r="Q109">
+        <v>0.450768</v>
+      </c>
+      <c r="R109">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110">
         <f t="shared" si="2"/>
         <v>22.7119</v>
@@ -8235,8 +11088,28 @@
       <c r="I110">
         <v>635</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f t="shared" si="4"/>
+        <v>24.963999999999999</v>
+      </c>
+      <c r="L110">
+        <v>0.24964</v>
+      </c>
+      <c r="M110">
+        <v>47</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="5"/>
+        <v>47.8977</v>
+      </c>
+      <c r="Q110">
+        <v>0.47897699999999999</v>
+      </c>
+      <c r="R110">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111">
         <f t="shared" si="2"/>
         <v>23.238900000000001</v>
@@ -8257,8 +11130,28 @@
       <c r="I111">
         <v>80</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f t="shared" si="4"/>
+        <v>26.062999999999999</v>
+      </c>
+      <c r="L111">
+        <v>0.26062999999999997</v>
+      </c>
+      <c r="M111">
+        <v>49</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="5"/>
+        <v>47.442</v>
+      </c>
+      <c r="Q111">
+        <v>0.47442000000000001</v>
+      </c>
+      <c r="R111">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112">
         <f t="shared" si="2"/>
         <v>26.233800000000002</v>
@@ -8279,8 +11172,28 @@
       <c r="I112">
         <v>493</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <f t="shared" si="4"/>
+        <v>26.5</v>
+      </c>
+      <c r="L112">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M112">
+        <v>49</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="5"/>
+        <v>35.497099999999996</v>
+      </c>
+      <c r="Q112">
+        <v>0.35497099999999998</v>
+      </c>
+      <c r="R112">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113">
         <f t="shared" si="2"/>
         <v>21.907399999999999</v>
@@ -8301,8 +11214,28 @@
       <c r="I113">
         <v>558</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f t="shared" si="4"/>
+        <v>24.768999999999998</v>
+      </c>
+      <c r="L113">
+        <v>0.24768999999999999</v>
+      </c>
+      <c r="M113">
+        <v>45</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="5"/>
+        <v>48.512300000000003</v>
+      </c>
+      <c r="Q113">
+        <v>0.48512300000000003</v>
+      </c>
+      <c r="R113">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114">
         <f t="shared" si="2"/>
         <v>25.013300000000001</v>
@@ -8323,8 +11256,28 @@
       <c r="I114">
         <v>156</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <f t="shared" si="4"/>
+        <v>25.528699999999997</v>
+      </c>
+      <c r="L114">
+        <v>0.25528699999999999</v>
+      </c>
+      <c r="M114">
+        <v>52</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="5"/>
+        <v>48.572199999999995</v>
+      </c>
+      <c r="Q114">
+        <v>0.48572199999999999</v>
+      </c>
+      <c r="R114">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115">
         <f t="shared" si="2"/>
         <v>24.305099999999999</v>
@@ -8345,8 +11298,28 @@
       <c r="I115">
         <v>76</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f t="shared" si="4"/>
+        <v>26.662799999999997</v>
+      </c>
+      <c r="L115">
+        <v>0.26662799999999998</v>
+      </c>
+      <c r="M115">
+        <v>49</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="5"/>
+        <v>47.485900000000001</v>
+      </c>
+      <c r="Q115">
+        <v>0.47485899999999998</v>
+      </c>
+      <c r="R115">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B116">
         <f t="shared" si="2"/>
         <v>26.8063</v>
@@ -8367,8 +11340,28 @@
       <c r="I116">
         <v>714</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f t="shared" si="4"/>
+        <v>24.918299999999999</v>
+      </c>
+      <c r="L116">
+        <v>0.24918299999999999</v>
+      </c>
+      <c r="M116">
+        <v>45</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="5"/>
+        <v>31.208099999999998</v>
+      </c>
+      <c r="Q116">
+        <v>0.312081</v>
+      </c>
+      <c r="R116">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117">
         <f t="shared" si="2"/>
         <v>23.979700000000001</v>
@@ -8389,8 +11382,28 @@
       <c r="I117">
         <v>321</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f t="shared" si="4"/>
+        <v>26.088000000000001</v>
+      </c>
+      <c r="L117">
+        <v>0.26088</v>
+      </c>
+      <c r="M117">
+        <v>52</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="5"/>
+        <v>33.380299999999998</v>
+      </c>
+      <c r="Q117">
+        <v>0.33380300000000002</v>
+      </c>
+      <c r="R117">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118">
         <f t="shared" si="2"/>
         <v>23.445</v>
@@ -8411,8 +11424,28 @@
       <c r="I118">
         <v>1720</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <f t="shared" si="4"/>
+        <v>24.867699999999999</v>
+      </c>
+      <c r="L118">
+        <v>0.24867700000000001</v>
+      </c>
+      <c r="M118">
+        <v>46</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="5"/>
+        <v>37.479199999999999</v>
+      </c>
+      <c r="Q118">
+        <v>0.37479200000000001</v>
+      </c>
+      <c r="R118">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119">
         <f t="shared" si="2"/>
         <v>26.087700000000002</v>
@@ -8433,8 +11466,28 @@
       <c r="I119">
         <v>140</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <f t="shared" si="4"/>
+        <v>25.722799999999999</v>
+      </c>
+      <c r="L119">
+        <v>0.25722800000000001</v>
+      </c>
+      <c r="M119">
+        <v>48</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="5"/>
+        <v>47.528199999999998</v>
+      </c>
+      <c r="Q119">
+        <v>0.47528199999999998</v>
+      </c>
+      <c r="R119">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120">
         <f t="shared" si="2"/>
         <v>23.736599999999999</v>
@@ -8455,8 +11508,28 @@
       <c r="I120">
         <v>994</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>24.897400000000001</v>
+      </c>
+      <c r="L120">
+        <v>0.248974</v>
+      </c>
+      <c r="M120">
+        <v>46</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="5"/>
+        <v>45.449800000000003</v>
+      </c>
+      <c r="Q120">
+        <v>0.45449800000000001</v>
+      </c>
+      <c r="R120">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121">
         <f t="shared" si="2"/>
         <v>26.109500000000001</v>
@@ -8477,8 +11550,28 @@
       <c r="I121">
         <v>280</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>23.766100000000002</v>
+      </c>
+      <c r="L121">
+        <v>0.23766100000000001</v>
+      </c>
+      <c r="M121">
+        <v>47</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="5"/>
+        <v>34.679600000000001</v>
+      </c>
+      <c r="Q121">
+        <v>0.34679599999999999</v>
+      </c>
+      <c r="R121">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B122">
         <f t="shared" si="2"/>
         <v>26.232699999999998</v>
@@ -8499,8 +11592,28 @@
       <c r="I122">
         <v>498</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>27.123899999999999</v>
+      </c>
+      <c r="L122">
+        <v>0.27123900000000001</v>
+      </c>
+      <c r="M122">
+        <v>50</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="5"/>
+        <v>38.924199999999999</v>
+      </c>
+      <c r="Q122">
+        <v>0.38924199999999998</v>
+      </c>
+      <c r="R122">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B123">
         <f t="shared" si="2"/>
         <v>26.5992</v>
@@ -8521,8 +11634,28 @@
       <c r="I123">
         <v>197</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>24.8292</v>
+      </c>
+      <c r="L123">
+        <v>0.24829200000000001</v>
+      </c>
+      <c r="M123">
+        <v>44</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="5"/>
+        <v>48.311500000000002</v>
+      </c>
+      <c r="Q123">
+        <v>0.48311500000000002</v>
+      </c>
+      <c r="R123">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B124">
         <f t="shared" si="2"/>
         <v>25.016899999999996</v>
@@ -8543,8 +11676,28 @@
       <c r="I124">
         <v>528</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <f t="shared" si="4"/>
+        <v>23.924899999999997</v>
+      </c>
+      <c r="L124">
+        <v>0.23924899999999999</v>
+      </c>
+      <c r="M124">
+        <v>45</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="5"/>
+        <v>44.0428</v>
+      </c>
+      <c r="Q124">
+        <v>0.44042799999999999</v>
+      </c>
+      <c r="R124">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B125">
         <f t="shared" si="2"/>
         <v>24.224999999999998</v>
@@ -8565,8 +11718,28 @@
       <c r="I125">
         <v>323</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f t="shared" si="4"/>
+        <v>23.595099999999999</v>
+      </c>
+      <c r="L125">
+        <v>0.23595099999999999</v>
+      </c>
+      <c r="M125">
+        <v>44</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="5"/>
+        <v>45.521599999999999</v>
+      </c>
+      <c r="Q125">
+        <v>0.45521600000000001</v>
+      </c>
+      <c r="R125">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B126">
         <f t="shared" si="2"/>
         <v>24.796099999999999</v>
@@ -8587,8 +11760,28 @@
       <c r="I126">
         <v>387</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f t="shared" si="4"/>
+        <v>25.550899999999999</v>
+      </c>
+      <c r="L126">
+        <v>0.25550899999999999</v>
+      </c>
+      <c r="M126">
+        <v>49</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="5"/>
+        <v>29.486099999999997</v>
+      </c>
+      <c r="Q126">
+        <v>0.29486099999999998</v>
+      </c>
+      <c r="R126">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B127">
         <f t="shared" si="2"/>
         <v>25.425399999999996</v>
@@ -8609,8 +11802,28 @@
       <c r="I127">
         <v>1549</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <f t="shared" si="4"/>
+        <v>23.819000000000003</v>
+      </c>
+      <c r="L127">
+        <v>0.23819000000000001</v>
+      </c>
+      <c r="M127">
+        <v>46</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="5"/>
+        <v>27.330500000000001</v>
+      </c>
+      <c r="Q127">
+        <v>0.27330500000000002</v>
+      </c>
+      <c r="R127">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B128">
         <f t="shared" si="2"/>
         <v>26.348100000000002</v>
@@ -8631,8 +11844,28 @@
       <c r="I128">
         <v>94</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>24.689900000000002</v>
+      </c>
+      <c r="L128">
+        <v>0.24689900000000001</v>
+      </c>
+      <c r="M128">
+        <v>49</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="5"/>
+        <v>29.960700000000003</v>
+      </c>
+      <c r="Q128">
+        <v>0.29960700000000001</v>
+      </c>
+      <c r="R128">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B129">
         <f t="shared" si="2"/>
         <v>24.244299999999999</v>
@@ -8653,8 +11886,28 @@
       <c r="I129">
         <v>133</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="4"/>
+        <v>27.988800000000001</v>
+      </c>
+      <c r="L129">
+        <v>0.27988800000000003</v>
+      </c>
+      <c r="M129">
+        <v>51</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="5"/>
+        <v>35.213299999999997</v>
+      </c>
+      <c r="Q129">
+        <v>0.35213299999999997</v>
+      </c>
+      <c r="R129">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B130">
         <f t="shared" si="2"/>
         <v>23.852699999999999</v>
@@ -8675,8 +11928,28 @@
       <c r="I130">
         <v>433</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" si="4"/>
+        <v>23.6661</v>
+      </c>
+      <c r="L130">
+        <v>0.23666100000000001</v>
+      </c>
+      <c r="M130">
+        <v>44</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="5"/>
+        <v>47.087499999999999</v>
+      </c>
+      <c r="Q130">
+        <v>0.47087499999999999</v>
+      </c>
+      <c r="R130">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B131">
         <f t="shared" si="2"/>
         <v>23.7683</v>
@@ -8697,8 +11970,28 @@
       <c r="I131">
         <v>80</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <f t="shared" si="4"/>
+        <v>24.634499999999999</v>
+      </c>
+      <c r="L131">
+        <v>0.24634500000000001</v>
+      </c>
+      <c r="M131">
+        <v>43</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="5"/>
+        <v>42.650199999999998</v>
+      </c>
+      <c r="Q131">
+        <v>0.42650199999999999</v>
+      </c>
+      <c r="R131">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B132">
         <f t="shared" si="2"/>
         <v>23.097000000000001</v>
@@ -8719,8 +12012,28 @@
       <c r="I132">
         <v>404</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" si="4"/>
+        <v>23.6205</v>
+      </c>
+      <c r="L132">
+        <v>0.236205</v>
+      </c>
+      <c r="M132">
+        <v>47</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="5"/>
+        <v>28.529300000000003</v>
+      </c>
+      <c r="Q132">
+        <v>0.28529300000000002</v>
+      </c>
+      <c r="R132">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133">
         <f t="shared" si="2"/>
         <v>25.822299999999998</v>
@@ -8741,10 +12054,30 @@
       <c r="I133">
         <v>89</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="4"/>
+        <v>24.392299999999999</v>
+      </c>
+      <c r="L133">
+        <v>0.243923</v>
+      </c>
+      <c r="M133">
+        <v>45</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="5"/>
+        <v>29.723899999999997</v>
+      </c>
+      <c r="Q133">
+        <v>0.29723899999999998</v>
+      </c>
+      <c r="R133">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B134">
-        <f t="shared" ref="B134:B168" si="4">C134*100</f>
+        <f t="shared" ref="B134:B168" si="6">C134*100</f>
         <v>24.766300000000001</v>
       </c>
       <c r="C134">
@@ -8754,7 +12087,7 @@
         <v>46</v>
       </c>
       <c r="G134">
-        <f t="shared" ref="G134:G168" si="5">H134*100</f>
+        <f t="shared" ref="G134:G168" si="7">H134*100</f>
         <v>48.509299999999996</v>
       </c>
       <c r="H134">
@@ -8763,10 +12096,30 @@
       <c r="I134">
         <v>729</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" ref="K134:K168" si="8">L134*100</f>
+        <v>27.303799999999999</v>
+      </c>
+      <c r="L134">
+        <v>0.273038</v>
+      </c>
+      <c r="M134">
+        <v>51</v>
+      </c>
+      <c r="P134">
+        <f t="shared" ref="P134:P168" si="9">Q134*100</f>
+        <v>29.104900000000001</v>
+      </c>
+      <c r="Q134">
+        <v>0.291049</v>
+      </c>
+      <c r="R134">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.913799999999998</v>
       </c>
       <c r="C135">
@@ -8776,7 +12129,7 @@
         <v>49</v>
       </c>
       <c r="G135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29.3308</v>
       </c>
       <c r="H135">
@@ -8785,10 +12138,30 @@
       <c r="I135">
         <v>106</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <f t="shared" si="8"/>
+        <v>24.3035</v>
+      </c>
+      <c r="L135">
+        <v>0.243035</v>
+      </c>
+      <c r="M135">
+        <v>48</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="9"/>
+        <v>27.314300000000003</v>
+      </c>
+      <c r="Q135">
+        <v>0.27314300000000002</v>
+      </c>
+      <c r="R135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.9148</v>
       </c>
       <c r="C136">
@@ -8798,7 +12171,7 @@
         <v>46</v>
       </c>
       <c r="G136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30.1508</v>
       </c>
       <c r="H136">
@@ -8807,10 +12180,30 @@
       <c r="I136">
         <v>163</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <f t="shared" si="8"/>
+        <v>25.375599999999999</v>
+      </c>
+      <c r="L136">
+        <v>0.25375599999999998</v>
+      </c>
+      <c r="M136">
+        <v>47</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="9"/>
+        <v>29.360000000000003</v>
+      </c>
+      <c r="Q136">
+        <v>0.29360000000000003</v>
+      </c>
+      <c r="R136">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.180299999999999</v>
       </c>
       <c r="C137">
@@ -8820,7 +12213,7 @@
         <v>47</v>
       </c>
       <c r="G137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30.445299999999996</v>
       </c>
       <c r="H137">
@@ -8829,10 +12222,30 @@
       <c r="I137">
         <v>101</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <f t="shared" si="8"/>
+        <v>24.161899999999999</v>
+      </c>
+      <c r="L137">
+        <v>0.241619</v>
+      </c>
+      <c r="M137">
+        <v>45</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="9"/>
+        <v>48.646799999999999</v>
+      </c>
+      <c r="Q137">
+        <v>0.48646800000000001</v>
+      </c>
+      <c r="R137">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.682299999999998</v>
       </c>
       <c r="C138">
@@ -8842,7 +12255,7 @@
         <v>47</v>
       </c>
       <c r="G138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44.826899999999995</v>
       </c>
       <c r="H138">
@@ -8851,10 +12264,30 @@
       <c r="I138">
         <v>486</v>
       </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <f t="shared" si="8"/>
+        <v>25.1371</v>
+      </c>
+      <c r="L138">
+        <v>0.25137100000000001</v>
+      </c>
+      <c r="M138">
+        <v>50</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="9"/>
+        <v>31.886799999999997</v>
+      </c>
+      <c r="Q138">
+        <v>0.31886799999999998</v>
+      </c>
+      <c r="R138">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.7178</v>
       </c>
       <c r="C139">
@@ -8864,7 +12297,7 @@
         <v>48</v>
       </c>
       <c r="G139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30.2529</v>
       </c>
       <c r="H139">
@@ -8873,10 +12306,30 @@
       <c r="I139">
         <v>84</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <f t="shared" si="8"/>
+        <v>23.2453</v>
+      </c>
+      <c r="L139">
+        <v>0.23245299999999999</v>
+      </c>
+      <c r="M139">
+        <v>43</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="9"/>
+        <v>49.111199999999997</v>
+      </c>
+      <c r="Q139">
+        <v>0.49111199999999999</v>
+      </c>
+      <c r="R139">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.055800000000001</v>
       </c>
       <c r="C140">
@@ -8886,7 +12339,7 @@
         <v>45</v>
       </c>
       <c r="G140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42.743400000000001</v>
       </c>
       <c r="H140">
@@ -8895,10 +12348,30 @@
       <c r="I140">
         <v>371</v>
       </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <f t="shared" si="8"/>
+        <v>25.325500000000002</v>
+      </c>
+      <c r="L140">
+        <v>0.25325500000000001</v>
+      </c>
+      <c r="M140">
+        <v>46</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="9"/>
+        <v>49.5304</v>
+      </c>
+      <c r="Q140">
+        <v>0.49530400000000002</v>
+      </c>
+      <c r="R140">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29.116099999999999</v>
       </c>
       <c r="C141">
@@ -8908,7 +12381,7 @@
         <v>49</v>
       </c>
       <c r="G141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29.156100000000002</v>
       </c>
       <c r="H141">
@@ -8917,10 +12390,30 @@
       <c r="I141">
         <v>105</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" si="8"/>
+        <v>26.1569</v>
+      </c>
+      <c r="L141">
+        <v>0.261569</v>
+      </c>
+      <c r="M141">
+        <v>46</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="9"/>
+        <v>37.928600000000003</v>
+      </c>
+      <c r="Q141">
+        <v>0.37928600000000001</v>
+      </c>
+      <c r="R141">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.815500000000004</v>
       </c>
       <c r="C142">
@@ -8930,7 +12423,7 @@
         <v>45</v>
       </c>
       <c r="G142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32.589700000000001</v>
       </c>
       <c r="H142">
@@ -8939,10 +12432,30 @@
       <c r="I142">
         <v>326</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="8"/>
+        <v>26.019500000000001</v>
+      </c>
+      <c r="L142">
+        <v>0.26019500000000001</v>
+      </c>
+      <c r="M142">
+        <v>48</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="9"/>
+        <v>48.122199999999999</v>
+      </c>
+      <c r="Q142">
+        <v>0.48122199999999998</v>
+      </c>
+      <c r="R142">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.525700000000001</v>
       </c>
       <c r="C143">
@@ -8952,7 +12465,7 @@
         <v>50</v>
       </c>
       <c r="G143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27.301300000000001</v>
       </c>
       <c r="H143">
@@ -8961,10 +12474,30 @@
       <c r="I143">
         <v>163</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f t="shared" si="8"/>
+        <v>26.271899999999999</v>
+      </c>
+      <c r="L143">
+        <v>0.26271899999999998</v>
+      </c>
+      <c r="M143">
+        <v>48</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="9"/>
+        <v>31.859500000000001</v>
+      </c>
+      <c r="Q143">
+        <v>0.31859500000000002</v>
+      </c>
+      <c r="R143">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.939499999999999</v>
       </c>
       <c r="C144">
@@ -8974,7 +12507,7 @@
         <v>45</v>
       </c>
       <c r="G144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47.877199999999995</v>
       </c>
       <c r="H144">
@@ -8983,10 +12516,30 @@
       <c r="I144">
         <v>639</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="8"/>
+        <v>23.773299999999999</v>
+      </c>
+      <c r="L144">
+        <v>0.237733</v>
+      </c>
+      <c r="M144">
+        <v>43</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="9"/>
+        <v>49.673200000000001</v>
+      </c>
+      <c r="Q144">
+        <v>0.49673200000000001</v>
+      </c>
+      <c r="R144">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.415399999999998</v>
       </c>
       <c r="C145">
@@ -8996,7 +12549,7 @@
         <v>47</v>
       </c>
       <c r="G145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.560500000000005</v>
       </c>
       <c r="H145">
@@ -9005,10 +12558,30 @@
       <c r="I145">
         <v>353</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <f t="shared" si="8"/>
+        <v>23.716699999999999</v>
+      </c>
+      <c r="L145">
+        <v>0.23716699999999999</v>
+      </c>
+      <c r="M145">
+        <v>43</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="9"/>
+        <v>28.258499999999998</v>
+      </c>
+      <c r="Q145">
+        <v>0.28258499999999998</v>
+      </c>
+      <c r="R145">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.259</v>
       </c>
       <c r="C146">
@@ -9018,7 +12591,7 @@
         <v>47</v>
       </c>
       <c r="G146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47.230800000000002</v>
       </c>
       <c r="H146">
@@ -9027,10 +12600,30 @@
       <c r="I146">
         <v>372</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <f t="shared" si="8"/>
+        <v>23.654399999999999</v>
+      </c>
+      <c r="L146">
+        <v>0.236544</v>
+      </c>
+      <c r="M146">
+        <v>44</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="9"/>
+        <v>29.4499</v>
+      </c>
+      <c r="Q146">
+        <v>0.29449900000000001</v>
+      </c>
+      <c r="R146">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.8477</v>
       </c>
       <c r="C147">
@@ -9040,7 +12633,7 @@
         <v>45</v>
       </c>
       <c r="G147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37.164999999999999</v>
       </c>
       <c r="H147">
@@ -9049,10 +12642,30 @@
       <c r="I147">
         <v>433</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <f t="shared" si="8"/>
+        <v>23.846500000000002</v>
+      </c>
+      <c r="L147">
+        <v>0.23846500000000001</v>
+      </c>
+      <c r="M147">
+        <v>43</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="9"/>
+        <v>40.500900000000001</v>
+      </c>
+      <c r="Q147">
+        <v>0.40500900000000001</v>
+      </c>
+      <c r="R147">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.5581</v>
       </c>
       <c r="C148">
@@ -9062,7 +12675,7 @@
         <v>46</v>
       </c>
       <c r="G148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30.777500000000003</v>
       </c>
       <c r="H148">
@@ -9071,10 +12684,30 @@
       <c r="I148">
         <v>86</v>
       </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="8"/>
+        <v>25.830799999999996</v>
+      </c>
+      <c r="L148">
+        <v>0.25830799999999998</v>
+      </c>
+      <c r="M148">
+        <v>49</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="9"/>
+        <v>48.935400000000001</v>
+      </c>
+      <c r="Q148">
+        <v>0.48935400000000001</v>
+      </c>
+      <c r="R148">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.079499999999999</v>
       </c>
       <c r="C149">
@@ -9084,7 +12717,7 @@
         <v>44</v>
       </c>
       <c r="G149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27.941500000000001</v>
       </c>
       <c r="H149">
@@ -9093,10 +12726,30 @@
       <c r="I149">
         <v>109</v>
       </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <f t="shared" si="8"/>
+        <v>25.2318</v>
+      </c>
+      <c r="L149">
+        <v>0.25231799999999999</v>
+      </c>
+      <c r="M149">
+        <v>46</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="9"/>
+        <v>27.751300000000001</v>
+      </c>
+      <c r="Q149">
+        <v>0.27751300000000001</v>
+      </c>
+      <c r="R149">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.195600000000002</v>
       </c>
       <c r="C150">
@@ -9106,7 +12759,7 @@
         <v>48</v>
       </c>
       <c r="G150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47.9756</v>
       </c>
       <c r="H150">
@@ -9115,10 +12768,30 @@
       <c r="I150">
         <v>694</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <f t="shared" si="8"/>
+        <v>25.037799999999997</v>
+      </c>
+      <c r="L150">
+        <v>0.25037799999999999</v>
+      </c>
+      <c r="M150">
+        <v>45</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="9"/>
+        <v>42.384399999999999</v>
+      </c>
+      <c r="Q150">
+        <v>0.423844</v>
+      </c>
+      <c r="R150">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.839500000000001</v>
       </c>
       <c r="C151">
@@ -9128,7 +12801,7 @@
         <v>47</v>
       </c>
       <c r="G151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34.703600000000002</v>
       </c>
       <c r="H151">
@@ -9137,10 +12810,30 @@
       <c r="I151">
         <v>455</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <f t="shared" si="8"/>
+        <v>24.823899999999998</v>
+      </c>
+      <c r="L151">
+        <v>0.24823899999999999</v>
+      </c>
+      <c r="M151">
+        <v>47</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="9"/>
+        <v>40.646100000000004</v>
+      </c>
+      <c r="Q151">
+        <v>0.40646100000000002</v>
+      </c>
+      <c r="R151">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.504799999999999</v>
       </c>
       <c r="C152">
@@ -9150,7 +12843,7 @@
         <v>43</v>
       </c>
       <c r="G152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42.547600000000003</v>
       </c>
       <c r="H152">
@@ -9159,10 +12852,30 @@
       <c r="I152">
         <v>262</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="8"/>
+        <v>25.565300000000001</v>
+      </c>
+      <c r="L152">
+        <v>0.25565300000000002</v>
+      </c>
+      <c r="M152">
+        <v>47</v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="9"/>
+        <v>35.670200000000001</v>
+      </c>
+      <c r="Q152">
+        <v>0.35670200000000002</v>
+      </c>
+      <c r="R152">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.009</v>
       </c>
       <c r="C153">
@@ -9172,7 +12885,7 @@
         <v>47</v>
       </c>
       <c r="G153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44.334499999999998</v>
       </c>
       <c r="H153">
@@ -9181,10 +12894,30 @@
       <c r="I153">
         <v>873</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <f t="shared" si="8"/>
+        <v>25.656299999999998</v>
+      </c>
+      <c r="L153">
+        <v>0.25656299999999999</v>
+      </c>
+      <c r="M153">
+        <v>48</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="9"/>
+        <v>45.537700000000001</v>
+      </c>
+      <c r="Q153">
+        <v>0.45537699999999998</v>
+      </c>
+      <c r="R153">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.3627</v>
       </c>
       <c r="C154">
@@ -9194,7 +12927,7 @@
         <v>45</v>
       </c>
       <c r="G154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47.5501</v>
       </c>
       <c r="H154">
@@ -9203,10 +12936,30 @@
       <c r="I154">
         <v>953</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="8"/>
+        <v>24.635999999999999</v>
+      </c>
+      <c r="L154">
+        <v>0.24636</v>
+      </c>
+      <c r="M154">
+        <v>45</v>
+      </c>
+      <c r="P154">
+        <f t="shared" si="9"/>
+        <v>31.8398</v>
+      </c>
+      <c r="Q154">
+        <v>0.31839800000000001</v>
+      </c>
+      <c r="R154">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.315700000000003</v>
       </c>
       <c r="C155">
@@ -9216,7 +12969,7 @@
         <v>46</v>
       </c>
       <c r="G155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48.744599999999998</v>
       </c>
       <c r="H155">
@@ -9225,10 +12978,30 @@
       <c r="I155">
         <v>843</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <f t="shared" si="8"/>
+        <v>27.432299999999998</v>
+      </c>
+      <c r="L155">
+        <v>0.27432299999999998</v>
+      </c>
+      <c r="M155">
+        <v>48</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="9"/>
+        <v>47.78</v>
+      </c>
+      <c r="Q155">
+        <v>0.4778</v>
+      </c>
+      <c r="R155">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.208400000000001</v>
       </c>
       <c r="C156">
@@ -9238,7 +13011,7 @@
         <v>50</v>
       </c>
       <c r="G156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45.268799999999999</v>
       </c>
       <c r="H156">
@@ -9247,10 +13020,30 @@
       <c r="I156">
         <v>749</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="8"/>
+        <v>24.3889</v>
+      </c>
+      <c r="L156">
+        <v>0.24388899999999999</v>
+      </c>
+      <c r="M156">
+        <v>45</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="9"/>
+        <v>27.833000000000002</v>
+      </c>
+      <c r="Q156">
+        <v>0.27833000000000002</v>
+      </c>
+      <c r="R156">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.450099999999999</v>
       </c>
       <c r="C157">
@@ -9260,7 +13053,7 @@
         <v>46</v>
       </c>
       <c r="G157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29.6236</v>
       </c>
       <c r="H157">
@@ -9269,10 +13062,30 @@
       <c r="I157">
         <v>314</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <f t="shared" si="8"/>
+        <v>23.658899999999999</v>
+      </c>
+      <c r="L157">
+        <v>0.23658899999999999</v>
+      </c>
+      <c r="M157">
+        <v>45</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="9"/>
+        <v>46.967100000000002</v>
+      </c>
+      <c r="Q157">
+        <v>0.46967100000000001</v>
+      </c>
+      <c r="R157">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.104400000000002</v>
       </c>
       <c r="C158">
@@ -9282,7 +13095,7 @@
         <v>45</v>
       </c>
       <c r="G158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49.363900000000001</v>
       </c>
       <c r="H158">
@@ -9291,10 +13104,30 @@
       <c r="I158">
         <v>1868</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <f t="shared" si="8"/>
+        <v>27.938299999999998</v>
+      </c>
+      <c r="L158">
+        <v>0.27938299999999999</v>
+      </c>
+      <c r="M158">
+        <v>54</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="9"/>
+        <v>42.857599999999998</v>
+      </c>
+      <c r="Q158">
+        <v>0.42857600000000001</v>
+      </c>
+      <c r="R158">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.607200000000002</v>
       </c>
       <c r="C159">
@@ -9304,7 +13137,7 @@
         <v>44</v>
       </c>
       <c r="G159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45.554699999999997</v>
       </c>
       <c r="H159">
@@ -9313,10 +13146,30 @@
       <c r="I159">
         <v>517</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <f t="shared" si="8"/>
+        <v>24.876899999999999</v>
+      </c>
+      <c r="L159">
+        <v>0.24876899999999999</v>
+      </c>
+      <c r="M159">
+        <v>44</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="9"/>
+        <v>41.459699999999998</v>
+      </c>
+      <c r="Q159">
+        <v>0.41459699999999999</v>
+      </c>
+      <c r="R159">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.162600000000001</v>
       </c>
       <c r="C160">
@@ -9326,7 +13179,7 @@
         <v>45</v>
       </c>
       <c r="G160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34.944299999999998</v>
       </c>
       <c r="H160">
@@ -9335,10 +13188,30 @@
       <c r="I160">
         <v>333</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <f t="shared" si="8"/>
+        <v>25.141000000000002</v>
+      </c>
+      <c r="L160">
+        <v>0.25141000000000002</v>
+      </c>
+      <c r="M160">
+        <v>44</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="9"/>
+        <v>41.8444</v>
+      </c>
+      <c r="Q160">
+        <v>0.41844399999999998</v>
+      </c>
+      <c r="R160">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24.753</v>
       </c>
       <c r="C161">
@@ -9348,7 +13221,7 @@
         <v>46</v>
       </c>
       <c r="G161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45.529199999999996</v>
       </c>
       <c r="H161">
@@ -9357,10 +13230,30 @@
       <c r="I161">
         <v>345</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="8"/>
+        <v>22.974</v>
+      </c>
+      <c r="L161">
+        <v>0.22974</v>
+      </c>
+      <c r="M161">
+        <v>43</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="9"/>
+        <v>44.407299999999999</v>
+      </c>
+      <c r="Q161">
+        <v>0.444073</v>
+      </c>
+      <c r="R161">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.659500000000001</v>
       </c>
       <c r="C162">
@@ -9370,7 +13263,7 @@
         <v>45</v>
       </c>
       <c r="G162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48.711100000000002</v>
       </c>
       <c r="H162">
@@ -9379,10 +13272,30 @@
       <c r="I162">
         <v>1326</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <f t="shared" si="8"/>
+        <v>25.341200000000004</v>
+      </c>
+      <c r="L162">
+        <v>0.25341200000000003</v>
+      </c>
+      <c r="M162">
+        <v>45</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="9"/>
+        <v>33.558</v>
+      </c>
+      <c r="Q162">
+        <v>0.33557999999999999</v>
+      </c>
+      <c r="R162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.494199999999999</v>
       </c>
       <c r="C163">
@@ -9392,7 +13305,7 @@
         <v>49</v>
       </c>
       <c r="G163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34.267399999999995</v>
       </c>
       <c r="H163">
@@ -9401,10 +13314,30 @@
       <c r="I163">
         <v>241</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <f t="shared" si="8"/>
+        <v>24.6709</v>
+      </c>
+      <c r="L163">
+        <v>0.24670900000000001</v>
+      </c>
+      <c r="M163">
+        <v>44</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="9"/>
+        <v>48.178599999999996</v>
+      </c>
+      <c r="Q163">
+        <v>0.48178599999999999</v>
+      </c>
+      <c r="R163">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.4832</v>
       </c>
       <c r="C164">
@@ -9414,7 +13347,7 @@
         <v>47</v>
       </c>
       <c r="G164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39.504400000000004</v>
       </c>
       <c r="H164">
@@ -9423,10 +13356,30 @@
       <c r="I164">
         <v>402</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <f t="shared" si="8"/>
+        <v>26.313399999999998</v>
+      </c>
+      <c r="L164">
+        <v>0.26313399999999998</v>
+      </c>
+      <c r="M164">
+        <v>47</v>
+      </c>
+      <c r="P164">
+        <f t="shared" si="9"/>
+        <v>49.246200000000002</v>
+      </c>
+      <c r="Q164">
+        <v>0.49246200000000001</v>
+      </c>
+      <c r="R164">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.3491</v>
       </c>
       <c r="C165">
@@ -9436,7 +13389,7 @@
         <v>44</v>
       </c>
       <c r="G165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>31.802500000000002</v>
       </c>
       <c r="H165">
@@ -9445,10 +13398,30 @@
       <c r="I165">
         <v>115</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <f t="shared" si="8"/>
+        <v>24.441600000000001</v>
+      </c>
+      <c r="L165">
+        <v>0.24441599999999999</v>
+      </c>
+      <c r="M165">
+        <v>49</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="9"/>
+        <v>41.362099999999998</v>
+      </c>
+      <c r="Q165">
+        <v>0.41362100000000002</v>
+      </c>
+      <c r="R165">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.900500000000001</v>
       </c>
       <c r="C166">
@@ -9458,7 +13431,7 @@
         <v>46</v>
       </c>
       <c r="G166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48.418199999999999</v>
       </c>
       <c r="H166">
@@ -9467,10 +13440,30 @@
       <c r="I166">
         <v>750</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <f t="shared" si="8"/>
+        <v>25.002999999999997</v>
+      </c>
+      <c r="L166">
+        <v>0.25002999999999997</v>
+      </c>
+      <c r="M166">
+        <v>45</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="9"/>
+        <v>31.830000000000002</v>
+      </c>
+      <c r="Q166">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="R166">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.323499999999999</v>
       </c>
       <c r="C167">
@@ -9480,7 +13473,7 @@
         <v>46</v>
       </c>
       <c r="G167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41.645800000000001</v>
       </c>
       <c r="H167">
@@ -9489,10 +13482,30 @@
       <c r="I167">
         <v>216</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <f t="shared" si="8"/>
+        <v>25.385899999999999</v>
+      </c>
+      <c r="L167">
+        <v>0.253859</v>
+      </c>
+      <c r="M167">
+        <v>50</v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="9"/>
+        <v>46.161900000000003</v>
+      </c>
+      <c r="Q167">
+        <v>0.461619</v>
+      </c>
+      <c r="R167">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23.9419</v>
       </c>
       <c r="C168">
@@ -9502,7 +13515,7 @@
         <v>51</v>
       </c>
       <c r="G168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47.721799999999995</v>
       </c>
       <c r="H168">
@@ -9510,6 +13523,26 @@
       </c>
       <c r="I168">
         <v>1114</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="8"/>
+        <v>25.56</v>
+      </c>
+      <c r="L168">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="M168">
+        <v>49</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="9"/>
+        <v>45.082499999999996</v>
+      </c>
+      <c r="Q168">
+        <v>0.45082499999999998</v>
+      </c>
+      <c r="R168">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
